--- a/project/adopt_commit_max/experimental_results/oft_experimental_results.xlsx
+++ b/project/adopt_commit_max/experimental_results/oft_experimental_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Th3o0\OneDrive\Έγγραφα\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Th3o0\Desktop\University\MSC\IN4391 - Distributed Systems - Q3 2022\Assignment\DS\project\adopt_commit_max\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5613F9C0-8E53-46FC-A3F0-3FA32AD97168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49395A-7826-4250-AE1B-5C36A81E440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -447,112 +447,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="2" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -585,10 +585,10 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>8.33</v>
       </c>
@@ -636,10 +636,10 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>16</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <v>60.55</v>
       </c>
@@ -702,10 +702,10 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>32</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>222.79</v>
       </c>
@@ -768,10 +768,10 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>64</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>245.34</v>
       </c>
@@ -834,69 +834,69 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>128</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
-        <v>539.54999999999995</v>
+        <v>378.44</v>
       </c>
       <c r="D8" s="1">
-        <v>23.23</v>
+        <v>26.05</v>
       </c>
       <c r="E8" s="1">
-        <v>29.62</v>
+        <v>45.92</v>
       </c>
       <c r="F8" s="1">
         <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I8" s="1">
-        <v>764.52</v>
+        <v>655</v>
       </c>
       <c r="J8" s="1">
-        <v>27.65</v>
+        <v>25.59</v>
       </c>
       <c r="K8" s="1">
-        <v>47.04</v>
+        <v>48.75</v>
       </c>
       <c r="L8" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O8" s="1">
-        <v>522.88</v>
+        <v>555.12</v>
       </c>
       <c r="P8" s="1">
-        <v>22.87</v>
+        <v>23.56</v>
       </c>
       <c r="Q8" s="1">
-        <v>52.35</v>
+        <v>37.82</v>
       </c>
       <c r="R8" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S8" s="1">
         <v>101</v>
       </c>
       <c r="U8" s="1">
-        <v>363.51</v>
+        <v>620.20000000000005</v>
       </c>
       <c r="V8" s="1">
-        <v>19.059999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="W8" s="1">
-        <v>27.43</v>
+        <v>44.69</v>
       </c>
       <c r="X8" s="1">
         <v>13</v>
       </c>
       <c r="Y8" s="1">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
